--- a/Gears/Resources/Gear_Parameters.xlsx
+++ b/Gears/Resources/Gear_Parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Drive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\GitHub\Gears\Gears\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,8 +18,8 @@
     <definedName name="a">Sheet1!$B$15</definedName>
     <definedName name="b_1">Sheet1!$B$27</definedName>
     <definedName name="b_2">Sheet1!$C$27</definedName>
-    <definedName name="bc_1">Sheet1!$B$11</definedName>
-    <definedName name="bc_2">Sheet1!$C$11</definedName>
+    <definedName name="b_c_1">Sheet1!$B$11</definedName>
+    <definedName name="b_c_2">Sheet1!$C$11</definedName>
     <definedName name="d_1">Sheet1!$B$19</definedName>
     <definedName name="d_2">Sheet1!$C$19</definedName>
     <definedName name="da_1">Sheet1!$B$21</definedName>
@@ -34,25 +34,23 @@
     <definedName name="h_2">Sheet1!$C$26</definedName>
     <definedName name="ha_1">Sheet1!$B$24</definedName>
     <definedName name="ha_2">Sheet1!$C$24</definedName>
-    <definedName name="hac">Sheet1!$B$7</definedName>
+    <definedName name="ha_c">Sheet1!$B$7</definedName>
     <definedName name="hf_1">Sheet1!$B$25</definedName>
     <definedName name="hf_2">Sheet1!$C$25</definedName>
-    <definedName name="hfc">Sheet1!$B$8</definedName>
+    <definedName name="hf_c">Sheet1!$B$8</definedName>
     <definedName name="L_1">Sheet1!$B$18</definedName>
     <definedName name="L_2">Sheet1!$C$18</definedName>
     <definedName name="mn">Sheet1!$B$4</definedName>
-    <definedName name="MN_1">Sheet1!$B$4</definedName>
-    <definedName name="MN_2">Sheet1!$C$4</definedName>
     <definedName name="mt">Sheet1!$B$13</definedName>
     <definedName name="y">Sheet1!$B$14</definedName>
     <definedName name="z_1">Sheet1!$B$9</definedName>
     <definedName name="z_2">Sheet1!$C$9</definedName>
-    <definedName name="αｎ">Sheet1!$B$5</definedName>
+    <definedName name="αn">Sheet1!$B$5</definedName>
     <definedName name="αt">Sheet1!$B$16</definedName>
-    <definedName name="αw">Sheet1!$B$17</definedName>
+    <definedName name="αwt">Sheet1!$B$17</definedName>
     <definedName name="β">Sheet1!$B$6</definedName>
-    <definedName name="ρc_1">Sheet1!$B$10</definedName>
-    <definedName name="ρc_2">Sheet1!$C$10</definedName>
+    <definedName name="ρ_c_1">Sheet1!$B$10</definedName>
+    <definedName name="ρ_c_2">Sheet1!$C$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -182,18 +180,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="###.#####\°"/>
+    <numFmt numFmtId="179" formatCode="General\°"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -202,7 +206,9 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -314,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,32 +333,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -361,6 +388,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -643,32 +682,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="31.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -677,181 +718,177 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:3" ht="14.25" thickBot="1">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A12" s="13" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A27" s="10" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A12:C12"/>
@@ -860,6 +897,11 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
